--- a/Jiean/性能-监测分析/服务器监测采集.xlsx
+++ b/Jiean/性能-监测分析/服务器监测采集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="服务器资源使用" sheetId="2" r:id="rId1"/>
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="199">
   <si>
     <t>Total Server Memory</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,9 +269,6 @@
     <t>数据库中的每个分配单元都在表中占一行</t>
   </si>
   <si>
-    <t>数据库中所有表和索引的每个分区在表中各对应一行。即使 SQL Server 2005 中的所有表和索引并未显式分区，也认为它们至少包含一个分区。</t>
-  </si>
-  <si>
     <t>dm_exec</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,10 +280,6 @@
     <t>返回 SQL Server 2012 中缓存查询计划的聚合性能统计信息。缓存计划中的每个查询语句在该视图中对应一行，并且行的生存期与计划本身相关联。在从缓存删除计划时，也将从该视图中删除对应行</t>
   </si>
   <si>
-    <t>返回由指定的 sql_handle 标识的 SQL 批处理的文本。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>requests</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -520,18 +513,11 @@
     <t>waiting_tasks</t>
   </si>
   <si>
-    <t>返回正在等待某些资源的任务的等待队列的有关信息</t>
-  </si>
-  <si>
     <t>dm_tran</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>locks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回 SQL Server 2012 中有关当前活动的锁管理器资源的信息。 向锁管理器发出的已授予锁或正等待授予锁的每个当前活动请求分别对应一行。结果集中的列大体分为两组：资源组和请求组。 资源组说明正在进行锁请求的资源，请求组说明锁请求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -953,10 +939,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回当前有关在 SQL Server 中执行的每个请求的信息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dm_io</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1013,6 +995,38 @@
   </si>
   <si>
     <t xml:space="preserve">  23:13:31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事务有关的视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session_transactions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行有关的视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回 SQL Server 2012 中有关当前活动的锁管理器资源的信息。 向锁管理器发出的已授予锁或正等待授予锁的每个当前活动请求分别对应一行。结果集中的列大体分为两组：资源组和请求组。 资源组说明正在进行锁请求的资源，请求组说明锁请求,就是当前活动的，还没有结束的锁资源使用情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以查看当前的每个请求信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回正在等待某些资源的任务的等待队列的有关信息,可以查看当前正在等待资源的对象队列相关信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回由指定的 sql_handle 标识的 SQL 批处理的文本。执行过的sql批处理文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库中所有表和索引的每个分区在表中各对应一行。即使 SQL Server 2005 中的所有表和索引并未显式分区，也认为它们至少包含一个分区。这个视图可以查看表和索引的分区ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1020,7 +1034,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1104,6 +1118,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1192,7 +1213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1233,6 +1254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1245,7 +1267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1550,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
@@ -1571,21 +1593,21 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="str">
         <f ca="1">TEXT(NOW(),"yyyy-MM-dd")</f>
-        <v>2014-01-12</v>
+        <v>2014-01-22</v>
       </c>
       <c r="C1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="32">
+        <v>132</v>
+      </c>
+      <c r="E1" s="28">
         <v>41617</v>
       </c>
-      <c r="F1" s="32">
+      <c r="F1" s="28">
         <v>41620</v>
       </c>
-      <c r="G1" s="32">
+      <c r="G1" s="28">
         <v>41624</v>
       </c>
-      <c r="H1" s="32">
+      <c r="H1" s="28">
         <v>41625</v>
       </c>
       <c r="I1" s="1"/>
@@ -1593,30 +1615,30 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B2" t="str">
         <f ca="1">TEXT(NOW(),"HH:MM:SS")</f>
-        <v>00:40:47</v>
+        <v>18:52:23</v>
       </c>
       <c r="D2" s="2">
         <v>41604.293323379628</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>54952268</v>
@@ -1627,7 +1649,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>66392</v>
@@ -1638,7 +1660,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5">
         <v>55018428</v>
@@ -1649,7 +1671,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6">
         <v>55533488</v>
@@ -1660,7 +1682,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
@@ -1678,7 +1700,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D9">
         <v>65604</v>
@@ -1692,7 +1714,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D10">
         <v>41</v>
@@ -1706,7 +1728,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D11">
         <v>3634</v>
@@ -1720,7 +1742,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D12">
         <v>18399</v>
@@ -1734,10 +1756,10 @@
         <v>18</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D14">
         <v>75803660808</v>
@@ -1748,7 +1770,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15">
@@ -1760,7 +1782,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16">
@@ -1775,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F17">
         <v>59621288</v>
@@ -1786,7 +1808,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F18">
         <v>71462824</v>
@@ -1794,7 +1816,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19">
@@ -1806,7 +1828,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20">
@@ -1818,10 +1840,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D21">
         <v>330</v>
@@ -1829,10 +1851,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22">
         <v>296</v>
@@ -1840,10 +1862,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D23">
         <v>546</v>
@@ -1851,10 +1873,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D25">
         <v>11</v>
@@ -1862,7 +1884,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D26">
         <v>1912</v>
@@ -1870,7 +1892,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1878,7 +1900,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D28">
         <v>1380416</v>
@@ -1886,7 +1908,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D29">
         <v>1233792</v>
@@ -1894,7 +1916,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D30">
         <v>213</v>
@@ -1902,33 +1924,33 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D31">
         <v>130240</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D32">
         <v>56338</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I32">
         <f ca="1">HOUR(NOW())</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D33">
         <v>56270</v>
@@ -1936,7 +1958,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D34">
         <v>56464</v>
@@ -1944,16 +1966,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="24" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B36" s="24"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="28" t="s">
-        <v>153</v>
+      <c r="A37" s="29" t="s">
+        <v>149</v>
       </c>
       <c r="B37" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1963,7 +1985,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="28"/>
+      <c r="A38" s="29"/>
       <c r="B38" t="s">
         <v>6</v>
       </c>
@@ -1975,7 +1997,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="28"/>
+      <c r="A39" s="29"/>
       <c r="B39" t="s">
         <v>9</v>
       </c>
@@ -1987,7 +2009,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="28"/>
+      <c r="A40" s="29"/>
       <c r="B40" t="s">
         <v>7</v>
       </c>
@@ -2000,13 +2022,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F42">
         <v>3766312</v>
@@ -2020,7 +2042,7 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2034,7 +2056,7 @@
         <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F44">
         <v>160</v>
@@ -2045,10 +2067,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C46" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F46">
         <v>163741696</v>
@@ -2059,45 +2081,45 @@
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F47">
         <v>5209353</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="29" t="s">
-        <v>167</v>
+      <c r="A49" s="30" t="s">
+        <v>163</v>
       </c>
       <c r="B49" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H49">
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="29"/>
+      <c r="A50" s="30"/>
       <c r="B50" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H50">
         <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="29"/>
+      <c r="A51" s="30"/>
       <c r="B51" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H51">
         <v>738</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="29"/>
+      <c r="A52" s="30"/>
       <c r="B52" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2107,18 +2129,18 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="29"/>
+      <c r="A53" s="30"/>
       <c r="B53" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H53">
         <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="29"/>
+      <c r="A54" s="30"/>
       <c r="B54" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H54">
         <v>141</v>
@@ -2126,7 +2148,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2137,7 +2159,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H57">
         <v>68191</v>
@@ -2145,7 +2167,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -2153,10 +2175,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C59" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -2164,7 +2186,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -2172,13 +2194,13 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F63">
         <v>378752</v>
@@ -2189,7 +2211,7 @@
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F64">
         <v>208448</v>
@@ -2200,7 +2222,7 @@
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F65">
         <v>105360</v>
@@ -2211,7 +2233,7 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F66">
         <v>74840</v>
@@ -2219,10 +2241,10 @@
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C67" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F67">
         <v>14808</v>
@@ -2242,10 +2264,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22:N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2265,10 +2287,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2276,25 +2298,25 @@
       <c r="D4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
+      <c r="E4" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D5" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -2308,10 +2330,10 @@
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D6" s="13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -2337,10 +2359,10 @@
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
@@ -2390,7 +2412,7 @@
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D12" s="13"/>
       <c r="F12" s="25"/>
@@ -2405,30 +2427,30 @@
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
@@ -2442,7 +2464,7 @@
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D15" s="13"/>
       <c r="F15" s="25"/>
@@ -2457,7 +2479,7 @@
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
@@ -2471,10 +2493,10 @@
     </row>
     <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="13" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E17" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
@@ -2491,67 +2513,69 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D20" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
+        <v>133</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
     </row>
     <row r="21" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
+        <v>134</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D22" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
+        <v>135</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D23" s="13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E23" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
@@ -2565,38 +2589,38 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D24" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D25" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D26" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D27" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D28" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D29" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
@@ -2605,25 +2629,25 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D36" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -2631,16 +2655,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D38" s="13"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D39" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E39" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -2648,39 +2672,47 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D41" s="13"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D42" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D43" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>86</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D45" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E45" t="s">
-        <v>91</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D46" s="13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E46" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D47" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2718,8 +2750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2734,10 +2766,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -2749,7 +2781,7 @@
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -2761,7 +2793,7 @@
     <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -2773,7 +2805,7 @@
     <row r="4" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -2782,13 +2814,13 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="5" t="s">
-        <v>23</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -2824,17 +2856,17 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2842,14 +2874,14 @@
       <c r="B9" s="10"/>
       <c r="C9" s="12"/>
       <c r="D9" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="22" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2857,14 +2889,14 @@
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2872,14 +2904,14 @@
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2887,7 +2919,7 @@
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -2900,7 +2932,7 @@
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -2912,13 +2944,13 @@
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2928,7 +2960,7 @@
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -2940,7 +2972,7 @@
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -2952,12 +2984,12 @@
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2975,14 +3007,14 @@
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
       <c r="I19" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2990,14 +3022,14 @@
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3005,14 +3037,14 @@
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3020,14 +3052,14 @@
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3035,7 +3067,7 @@
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -3047,7 +3079,7 @@
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -3059,14 +3091,14 @@
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3083,17 +3115,17 @@
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3101,7 +3133,7 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -3113,7 +3145,7 @@
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -3125,7 +3157,7 @@
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
@@ -3137,7 +3169,7 @@
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -3158,17 +3190,17 @@
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
       <c r="I33" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -3176,7 +3208,7 @@
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
@@ -3260,42 +3292,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3319,52 +3351,52 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/Jiean/性能-监测分析/服务器监测采集.xlsx
+++ b/Jiean/性能-监测分析/服务器监测采集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="服务器资源使用" sheetId="2" r:id="rId1"/>
@@ -1255,6 +1255,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1267,7 +1268,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1593,7 +1593,7 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="str">
         <f ca="1">TEXT(NOW(),"yyyy-MM-dd")</f>
-        <v>2014-01-22</v>
+        <v>2014-02-25</v>
       </c>
       <c r="C1" t="s">
         <v>132</v>
@@ -1615,7 +1615,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B2" t="str">
         <f ca="1">TEXT(NOW(),"HH:MM:SS")</f>
-        <v>18:52:23</v>
+        <v>17:16:32</v>
       </c>
       <c r="D2" s="2">
         <v>41604.293323379628</v>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I32">
         <f ca="1">HOUR(NOW())</f>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -1971,7 +1971,7 @@
       <c r="B36" s="24"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="30" t="s">
         <v>149</v>
       </c>
       <c r="B37" t="s">
@@ -1985,7 +1985,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="29"/>
+      <c r="A38" s="30"/>
       <c r="B38" t="s">
         <v>6</v>
       </c>
@@ -1997,7 +1997,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="29"/>
+      <c r="A39" s="30"/>
       <c r="B39" t="s">
         <v>9</v>
       </c>
@@ -2009,7 +2009,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="29"/>
+      <c r="A40" s="30"/>
       <c r="B40" t="s">
         <v>7</v>
       </c>
@@ -2088,7 +2088,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="31" t="s">
         <v>163</v>
       </c>
       <c r="B49" t="s">
@@ -2099,7 +2099,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="30"/>
+      <c r="A50" s="31"/>
       <c r="B50" t="s">
         <v>165</v>
       </c>
@@ -2108,7 +2108,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="30"/>
+      <c r="A51" s="31"/>
       <c r="B51" t="s">
         <v>166</v>
       </c>
@@ -2117,7 +2117,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="30"/>
+      <c r="A52" s="31"/>
       <c r="B52" t="s">
         <v>167</v>
       </c>
@@ -2129,7 +2129,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="30"/>
+      <c r="A53" s="31"/>
       <c r="B53" t="s">
         <v>168</v>
       </c>
@@ -2138,7 +2138,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="30"/>
+      <c r="A54" s="31"/>
       <c r="B54" t="s">
         <v>169</v>
       </c>
@@ -2266,8 +2266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:N22"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2298,18 +2298,18 @@
       <c r="D4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D5" s="13" t="s">
@@ -2432,18 +2432,18 @@
       <c r="D13" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="6" t="s">
@@ -2523,52 +2523,52 @@
       <c r="D20" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
     </row>
     <row r="21" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D22" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D23" s="13" t="s">
@@ -2690,7 +2690,7 @@
       <c r="A44" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="33" t="s">
+      <c r="D44" s="29" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2750,7 +2750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>

--- a/Jiean/性能-监测分析/服务器监测采集.xlsx
+++ b/Jiean/性能-监测分析/服务器监测采集.xlsx
@@ -1573,7 +1573,7 @@
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
@@ -1593,7 +1593,7 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="str">
         <f ca="1">TEXT(NOW(),"yyyy-MM-dd")</f>
-        <v>2014-02-25</v>
+        <v>2014-03-19</v>
       </c>
       <c r="C1" t="s">
         <v>132</v>
@@ -1615,7 +1615,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B2" t="str">
         <f ca="1">TEXT(NOW(),"HH:MM:SS")</f>
-        <v>17:16:32</v>
+        <v>18:41:23</v>
       </c>
       <c r="D2" s="2">
         <v>41604.293323379628</v>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I32">
         <f ca="1">HOUR(NOW())</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -2266,8 +2266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Jiean/性能-监测分析/服务器监测采集.xlsx
+++ b/Jiean/性能-监测分析/服务器监测采集.xlsx
@@ -1593,7 +1593,7 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="str">
         <f ca="1">TEXT(NOW(),"yyyy-MM-dd")</f>
-        <v>2014-03-19</v>
+        <v>2014-03-25</v>
       </c>
       <c r="C1" t="s">
         <v>132</v>
@@ -1615,7 +1615,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B2" t="str">
         <f ca="1">TEXT(NOW(),"HH:MM:SS")</f>
-        <v>18:41:23</v>
+        <v>17:22:42</v>
       </c>
       <c r="D2" s="2">
         <v>41604.293323379628</v>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I32">
         <f ca="1">HOUR(NOW())</f>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -2266,8 +2266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Jiean/性能-监测分析/服务器监测采集.xlsx
+++ b/Jiean/性能-监测分析/服务器监测采集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="服务器资源使用" sheetId="2" r:id="rId1"/>
@@ -1572,11 +1572,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1593,7 +1593,7 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="str">
         <f ca="1">TEXT(NOW(),"yyyy-MM-dd")</f>
-        <v>2014-03-25</v>
+        <v>2014-03-27</v>
       </c>
       <c r="C1" t="s">
         <v>132</v>
@@ -1615,7 +1615,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B2" t="str">
         <f ca="1">TEXT(NOW(),"HH:MM:SS")</f>
-        <v>17:22:42</v>
+        <v>17:38:51</v>
       </c>
       <c r="D2" s="2">
         <v>41604.293323379628</v>
@@ -2266,8 +2266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Jiean/性能-监测分析/服务器监测采集.xlsx
+++ b/Jiean/性能-监测分析/服务器监测采集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="服务器资源使用" sheetId="2" r:id="rId1"/>
@@ -1572,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
@@ -1593,7 +1593,7 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="str">
         <f ca="1">TEXT(NOW(),"yyyy-MM-dd")</f>
-        <v>2014-03-27</v>
+        <v>2014-04-03</v>
       </c>
       <c r="C1" t="s">
         <v>132</v>
@@ -1615,7 +1615,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B2" t="str">
         <f ca="1">TEXT(NOW(),"HH:MM:SS")</f>
-        <v>17:38:51</v>
+        <v>01:15:21</v>
       </c>
       <c r="D2" s="2">
         <v>41604.293323379628</v>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I32">
         <f ca="1">HOUR(NOW())</f>
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -2266,8 +2266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
